--- a/src/test/resources/ed/synthsys/util/excel/2CSVTest.xlsx
+++ b/src/test/resources/ed/synthsys/util/excel/2CSVTest.xlsx
@@ -32,8 +32,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +69,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +380,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +403,7 @@
       <c r="B4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.2</v>
       </c>
       <c r="D4">
@@ -412,7 +422,7 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -421,5 +431,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/ed/synthsys/util/excel/2CSVTest.xlsx
+++ b/src/test/resources/ed/synthsys/util/excel/2CSVTest.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -26,6 +27,9 @@
   </si>
   <si>
     <t>with,comma</t>
+  </si>
+  <si>
+    <t>I am not second sheet not to be readed</t>
   </si>
 </sst>
 </file>
@@ -380,7 +384,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,4 +437,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>